--- a/forms/psa_yield_and_texture/psa_yield_and_texture.xlsx
+++ b/forms/psa_yield_and_texture/psa_yield_and_texture.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_yield\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_yield_and_texture\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5320"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -311,10 +311,10 @@
     <t>Welcome to the PSA form for Yield (for Corn, Cotton, or Soybean), that includes field hand harvest and taking soil texture. If you will remove sensors today also, please use the Sensor Uninstall Form as well</t>
   </si>
   <si>
-    <t>Return grain to lab, dry at low temperature if needed. Take moisture with moisture meter and weigh grain in a separate spreadsheet, found on the PSA Website. If you are removing sensors, please use the Kobo Form for Sensor unistalling</t>
-  </si>
-  <si>
     <t>row_spacing_inch</t>
+  </si>
+  <si>
+    <t>Return grain to lab, dry at low temperature if needed. Either dyr shelled grain to 0% or take moisture with moisture meter and weigh grain in a separate spreadsheet, found on the PSA Website. If you are removing sensors, please use the Kobo Form for Sensor unistalling</t>
   </si>
 </sst>
 </file>
@@ -658,14 +658,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -806,7 +807,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1339,7 +1340,7 @@
         <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>

--- a/forms/psa_yield_and_texture/psa_yield_and_texture.xlsx
+++ b/forms/psa_yield_and_texture/psa_yield_and_texture.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_yield_and_texture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_yield\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -311,10 +311,10 @@
     <t>Welcome to the PSA form for Yield (for Corn, Cotton, or Soybean), that includes field hand harvest and taking soil texture. If you will remove sensors today also, please use the Sensor Uninstall Form as well</t>
   </si>
   <si>
+    <t>Return grain to lab, dry at low temperature if needed. Take moisture with moisture meter and weigh grain in a separate spreadsheet, found on the PSA Website. If you are removing sensors, please use the Kobo Form for Sensor unistalling</t>
+  </si>
+  <si>
     <t>row_spacing_inch</t>
-  </si>
-  <si>
-    <t>Return grain to lab, dry at low temperature if needed. Either dyr shelled grain to 0% or take moisture with moisture meter and weigh grain in a separate spreadsheet, found on the PSA Website. If you are removing sensors, please use the Kobo Form for Sensor unistalling</t>
   </si>
 </sst>
 </file>
@@ -658,15 +658,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1796875" customWidth="1"/>
     <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -807,7 +806,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1340,7 +1339,7 @@
         <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
